--- a/7/5/1/1/Volumen a precios del año anterior encadenado 1986 a 2021 - Trimestral.xlsx
+++ b/7/5/1/1/Volumen a precios del año anterior encadenado 1986 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Serie</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4069,22 +4072,45 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>39238</v>
+        <v>39368</v>
       </c>
       <c r="C142">
-        <v>7753</v>
+        <v>7787</v>
       </c>
       <c r="D142">
-        <v>31560</v>
+        <v>31656</v>
       </c>
       <c r="E142">
-        <v>10976</v>
+        <v>10937</v>
       </c>
       <c r="F142">
-        <v>12243</v>
+        <v>12265</v>
       </c>
       <c r="G142">
-        <v>38012</v>
+        <v>38076</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>41667</v>
+      </c>
+      <c r="C143">
+        <v>8218</v>
+      </c>
+      <c r="D143">
+        <v>33530</v>
+      </c>
+      <c r="E143">
+        <v>10700</v>
+      </c>
+      <c r="F143">
+        <v>12671</v>
+      </c>
+      <c r="G143">
+        <v>39677</v>
       </c>
     </row>
   </sheetData>
